--- a/individual_case_outputs/avey/461.xlsx
+++ b/individual_case_outputs/avey/461.xlsx
@@ -720,11 +720,7 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>bronchiectasis</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
@@ -835,7 +831,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>bronchiectasis</t>
+          <t>bronchitis</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
